--- a/mf-intelligence/data/separated_files/nippon/Nippon India Aggressive Hybrid Fund/Nippon India Aggressive Hybrid Fund_Dec_2025.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India Aggressive Hybrid Fund/Nippon India Aggressive Hybrid Fund_Dec_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -2911,49 +2911,49 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BTVL03</t>
+          <t>INAV01</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>IN9397D01014</t>
+          <t>INE646L01027</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Bharti Airtel Limited- Partly Paid up</t>
+          <t>InterGlobe Aviation Limited</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Telecom - Services</t>
+          <t>Transport Services</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>144642</v>
+        <v>85150</v>
       </c>
       <c r="F78" t="n">
-        <v>2445.97</v>
+        <v>4308.16</v>
       </c>
       <c r="G78" t="n">
-        <v>0.006</v>
+        <v>0.0105</v>
       </c>
       <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>INAV01</t>
+          <t>SSNL02</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>INE646L01027</t>
+          <t>INE148O01028</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>InterGlobe Aviation Limited</t>
+          <t>Delhivery Limited</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2962,94 +2962,94 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>85150</v>
+        <v>324400</v>
       </c>
       <c r="F79" t="n">
-        <v>4308.16</v>
+        <v>1310.09</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0105</v>
+        <v>0.0032</v>
       </c>
       <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SSNL02</t>
+          <t>KWWA01</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>INE148O01028</t>
+          <t>INE2KCE01013</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Delhivery Limited</t>
+          <t>Kwality Walls (India) Limited**</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Transport Services</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>324400</v>
+        <v>221296</v>
       </c>
       <c r="F80" t="n">
-        <v>1310.09</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0032</v>
+        <v>0.0002</v>
       </c>
       <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>KWWA01</t>
+          <t>NHIT01</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>INE2KCE01013</t>
+          <t>INE0H7R23014</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Kwality Walls (India) Limited**</t>
+          <t>National Highways Infra Trust</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Food Products</t>
+          <t>Transport Infrastructure</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>221296</v>
+        <v>3764760</v>
       </c>
       <c r="F81" t="n">
-        <v>88.95999999999999</v>
+        <v>5551.14</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0002</v>
+        <v>0.0135</v>
       </c>
       <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NHIT01</t>
+          <t>CUBE01</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>INE0H7R23014</t>
+          <t>INE0NR623014</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>National Highways Infra Trust</t>
+          <t>Cube Highways Trust-InvIT Fund</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3058,1090 +3058,1084 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3764760</v>
+        <v>3800000</v>
       </c>
       <c r="F82" t="n">
-        <v>5551.14</v>
+        <v>5286.56</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0135</v>
+        <v>0.0129</v>
       </c>
       <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CUBE01</t>
+          <t>NBAR838</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>INE0NR623014</t>
+          <t>INE261F08EO7</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cube Highways Trust-InvIT Fund</t>
+          <t>7.48% National Bank For Agriculture and Rural Development</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Transport Infrastructure</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3800000</v>
+        <v>3500</v>
       </c>
       <c r="F83" t="n">
-        <v>5286.56</v>
+        <v>3545.75</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="H83" t="inlineStr"/>
+        <v>0.0086</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.069119</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GOI5196</t>
+          <t>SKRP21</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>IN0020230077</t>
+          <t>INE08BR07011</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>7.18% Government of India</t>
+          <t>8.28% Suryapet Khammam Road Pvt Ltd**</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5900000</v>
+        <v>4836</v>
       </c>
       <c r="F84" t="n">
-        <v>6046.92</v>
+        <v>3478.29</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0147</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>0.069815</v>
+        <v>0.0847</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GOI5713</t>
+          <t>LTMR58</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>IN0020240019</t>
+          <t>INE128M08094</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>7.1% Government of India</t>
+          <t>7.55% L&amp;T Metro Rail (Hyderabad) Limited</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA(CE)</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5000000</v>
+        <v>3500</v>
       </c>
       <c r="F85" t="n">
-        <v>5143.08</v>
+        <v>3466.49</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0125</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>0.067527</v>
+        <v>0.076899</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GOI6226</t>
+          <t>TOPL39</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>IN0020240134</t>
+          <t>INE813H07259</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>6.92% Government of India</t>
+          <t>8.65% Torrent Power Limited**</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5000000</v>
+        <v>300</v>
       </c>
       <c r="F86" t="n">
-        <v>5002.2</v>
+        <v>3150.44</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0122</v>
+        <v>0.0077</v>
       </c>
       <c r="H86" t="n">
-        <v>0.07033300000000001</v>
+        <v>0.07617400000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GOI6019</t>
+          <t>ICFP141</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>IN0020240118</t>
+          <t>INE896L07975</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>7.09% Government of India</t>
+          <t>9.95% IndoStar Capital Finance Limited**</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE AA-</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>3000000</v>
+        <v>2500</v>
       </c>
       <c r="F87" t="n">
-        <v>2933.09</v>
+        <v>2535.78</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0072</v>
+        <v>0.0062</v>
       </c>
       <c r="H87" t="n">
-        <v>0.07407900000000001</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GOI4462</t>
+          <t>SESA537</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>IN1520220022</t>
+          <t>INE205A08020</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>7.8% State Government Securities</t>
+          <t>9.5% Vedanta Limited**</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AA</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2500000</v>
+        <v>2500</v>
       </c>
       <c r="F88" t="n">
-        <v>2581.01</v>
+        <v>2522.23</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0063</v>
+        <v>0.0061</v>
       </c>
       <c r="H88" t="n">
-        <v>0.072876</v>
+        <v>0.089183</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>GOI7151</t>
+          <t>CENT241</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>IN2120250229</t>
+          <t>INE055A08037</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>7.45% State Government Securities</t>
+          <t>8.1% Aditya Birla Real Estate Limited**</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2500000</v>
+        <v>2500</v>
       </c>
       <c r="F89" t="n">
-        <v>2484.75</v>
+        <v>2502.85</v>
       </c>
       <c r="G89" t="n">
         <v>0.0061</v>
       </c>
       <c r="H89" t="n">
-        <v>0.07656300000000001</v>
+        <v>0.07375</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GOI4900</t>
+          <t>FEBA291</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>IN0020220102</t>
+          <t>INE171A08032</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>7.41% Government of India</t>
+          <t>8.2% The Federal Bank Limited**</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE AA+</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1500000</v>
+        <v>25</v>
       </c>
       <c r="F90" t="n">
-        <v>1566.37</v>
+        <v>2499.76</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0038</v>
+        <v>0.0061</v>
       </c>
       <c r="H90" t="n">
-        <v>0.069463</v>
+        <v>0.081986</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GOI2211</t>
+          <t>VFIP24</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>IN1520180317</t>
+          <t>INE08Z607091</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>8.35% State Government Securities</t>
+          <t>9.25% Vastu Finserve India Private Limited**</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AA-</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1000000</v>
+        <v>2500</v>
       </c>
       <c r="F91" t="n">
-        <v>1049.54</v>
+        <v>2497.67</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0026</v>
+        <v>0.0061</v>
       </c>
       <c r="H91" t="n">
-        <v>0.067012</v>
+        <v>0.096174</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GOI5706</t>
+          <t>RCIL20</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>IN3120240012</t>
+          <t>INE124D08019</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>7.42% State Government Securities</t>
+          <t>9.1% Indusind General Insurance Company Limited**</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE A+</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>200000</v>
+        <v>250</v>
       </c>
       <c r="F92" t="n">
-        <v>201.2</v>
+        <v>2417.18</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0005</v>
+        <v>0.0059</v>
       </c>
       <c r="H92" t="n">
-        <v>0.074534</v>
+        <v>0.14385</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GOI1909</t>
+          <t>MRRL21</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>IN0020170042</t>
+          <t>INE08BT07025</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>6.68% Government of India</t>
+          <t>8.08% Mancherial Repallewada Road Private Limited**</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>19510</v>
+        <v>2380</v>
       </c>
       <c r="F93" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>2242.74</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0055</v>
       </c>
       <c r="H93" t="n">
-        <v>0.06617199999999999</v>
+        <v>0.0858</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GOI2249</t>
+          <t>VLFP30</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>IN0020190065</t>
+          <t>INE321N07533</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>7.57% Government of India</t>
+          <t>9.5% Incred Financial Services Limited**</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA-</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>10200</v>
+        <v>2000</v>
       </c>
       <c r="F94" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>2010.25</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0049</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06768299999999999</v>
+        <v>0.09417499999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GOI3607</t>
+          <t>APTU20</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>IN0020210160</t>
+          <t>INE04MH07034</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>6.22% Government of India</t>
+          <t>9% Aptus Finance India Private Limited**</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE AA</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10000</v>
+        <v>2100</v>
       </c>
       <c r="F95" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>1574.04</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0038</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0588</v>
+        <v>0.09460300000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GOI2179</t>
+          <t>MUFL424</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>IN0020180454</t>
+          <t>INE414G07JG7</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>7.26% Government of India</t>
+          <t>9.09% Muthoot Finance Limited**</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>8600</v>
+        <v>1500</v>
       </c>
       <c r="F96" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>1551.08</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0038</v>
       </c>
       <c r="H96" t="n">
-        <v>0.059695</v>
+        <v>0.07885</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>NBAR838</t>
+          <t>CHOL1064</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>INE261F08EO7</t>
+          <t>INE121A08PP7</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>7.48% National Bank For Agriculture and Rural Development</t>
+          <t>9.1% Cholamandalam Investment and Finance Company Ltd</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>ICRA AA+</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="F97" t="n">
-        <v>3545.75</v>
+        <v>1227.13</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0086</v>
+        <v>0.003</v>
       </c>
       <c r="H97" t="n">
-        <v>0.069119</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SKRP21</t>
+          <t>POWF372</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>INE08BR07011</t>
+          <t>INE134E08IT9</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>8.28% Suryapet Khammam Road Pvt Ltd**</t>
+          <t>7.6% Power Finance Corporation Limited**</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CARE AAA</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4836</v>
+        <v>100</v>
       </c>
       <c r="F98" t="n">
-        <v>3478.29</v>
+        <v>1010.12</v>
       </c>
       <c r="G98" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0025</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0847</v>
+        <v>0.06759999999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LTMR58</t>
+          <t>SESA536</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>INE128M08094</t>
+          <t>INE205A08038</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>7.55% L&amp;T Metro Rail (Hyderabad) Limited</t>
+          <t>9.4% Vedanta Limited**</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CRISIL AAA(CE)</t>
+          <t>ICRA AA</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="F99" t="n">
-        <v>3466.49</v>
+        <v>1005.42</v>
       </c>
       <c r="G99" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0025</v>
       </c>
       <c r="H99" t="n">
-        <v>0.076899</v>
+        <v>0.08855</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TOPL39</t>
+          <t>TELA21</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>INE813H07259</t>
+          <t>INE1C3207081</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>8.65% Torrent Power Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited**</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F100" t="n">
-        <v>3150.44</v>
+        <v>609.39</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0077</v>
+        <v>0.0015</v>
       </c>
       <c r="H100" t="n">
-        <v>0.07617400000000001</v>
+        <v>0.089611</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ICFP141</t>
+          <t>TELA20</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>INE896L07975</t>
+          <t>INE1C3207057</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>9.95% IndoStar Capital Finance Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CARE AA-</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="F101" t="n">
-        <v>2535.78</v>
+        <v>606.4400000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0062</v>
+        <v>0.0015</v>
       </c>
       <c r="H101" t="n">
-        <v>0.08550000000000001</v>
+        <v>0.08914800000000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SESA537</t>
+          <t>AFPL128</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>INE205A08020</t>
+          <t>INE949L08442</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>9.5% Vedanta Limited**</t>
+          <t>9.3% AU Small Finance Bank Limited**</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ICRA AA</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2500</v>
+        <v>5</v>
       </c>
       <c r="F102" t="n">
-        <v>2522.23</v>
+        <v>506.75</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0061</v>
+        <v>0.0012</v>
       </c>
       <c r="H102" t="n">
-        <v>0.089183</v>
+        <v>0.08295</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CENT241</t>
+          <t>ICFP147</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>INE055A08037</t>
+          <t>INE896L07983</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>8.1% Aditya Birla Real Estate Limited**</t>
+          <t>10.5% IndoStar Capital Finance Limited**</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>CARE AA-</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2500</v>
+        <v>50000</v>
       </c>
       <c r="F103" t="n">
-        <v>2502.85</v>
+        <v>506.04</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0061</v>
+        <v>0.0012</v>
       </c>
       <c r="H103" t="n">
-        <v>0.07375</v>
+        <v>0.085049</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>FEBA291</t>
+          <t>SUMM22</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>INE171A08032</t>
+          <t>INE507T07070</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>8.2% The Federal Bank Limited**</t>
+          <t>7.4% Summit Digitel Infrastructure Limited**</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CARE AA+</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F104" t="n">
-        <v>2499.76</v>
+        <v>504.56</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0061</v>
+        <v>0.0012</v>
       </c>
       <c r="H104" t="n">
-        <v>0.081986</v>
+        <v>0.07220699999999999</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>VFIP24</t>
+          <t>APSB40</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>INE08Z607091</t>
+          <t>INE0M2307412</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>9.25% Vastu Finserve India Private Limited**</t>
+          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ICRA AA-</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="F105" t="n">
-        <v>2497.67</v>
+        <v>253</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0061</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0.096174</v>
+        <v>0.092526</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RCIL20</t>
+          <t>APSB41</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>INE124D08019</t>
+          <t>INE0M2307396</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>9.1% Indusind General Insurance Company Limited**</t>
+          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CARE A+</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E106" t="n">
         <v>250</v>
       </c>
       <c r="F106" t="n">
-        <v>2417.18</v>
+        <v>252.69</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0059</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0.14385</v>
+        <v>0.092877</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MRRL21</t>
+          <t>APSB39</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>INE08BT07025</t>
+          <t>INE0M2307404</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>8.08% Mancherial Repallewada Road Private Limited**</t>
+          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CARE AAA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2380</v>
+        <v>250</v>
       </c>
       <c r="F107" t="n">
-        <v>2242.74</v>
+        <v>252.48</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0055</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0858</v>
+        <v>0.092736</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>VLFP30</t>
+          <t>APSB36</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>INE321N07533</t>
+          <t>INE0M2307339</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>9.5% Incred Financial Services Limited**</t>
+          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>CRISIL AA-</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="F108" t="n">
-        <v>2010.25</v>
+        <v>252.46</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0049</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0.09417499999999999</v>
+        <v>0.09184100000000001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>APTU20</t>
+          <t>APSB38</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>INE04MH07034</t>
+          <t>INE0M2307347</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>9% Aptus Finance India Private Limited**</t>
+          <t>9.15% Andhra Pradesh State Beverages Corporation Limited**</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>CARE AA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>2100</v>
+        <v>250</v>
       </c>
       <c r="F109" t="n">
-        <v>1574.04</v>
+        <v>252.45</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0038</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0.09460300000000001</v>
+        <v>0.092555</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MUFL424</t>
+          <t>APSB35</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>INE414G07JG7</t>
+          <t>INE0M2307354</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>9.09% Muthoot Finance Limited**</t>
+          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="F110" t="n">
-        <v>1551.08</v>
+        <v>251.52</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0038</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0.07885</v>
+        <v>0.092519</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CHOL1064</t>
+          <t>APSB37</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>INE121A08PP7</t>
+          <t>INE0M2307388</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>9.1% Cholamandalam Investment and Finance Company Ltd</t>
+          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ICRA AA+</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="F111" t="n">
-        <v>1227.13</v>
+        <v>251.49</v>
       </c>
       <c r="G111" t="n">
-        <v>0.003</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H111" t="n">
-        <v>0.08550000000000001</v>
+        <v>0.093209</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>POWF372</t>
+          <t>APSB34</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>INE134E08IT9</t>
+          <t>INE0M2307370</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>7.6% Power Finance Corporation Limited**</t>
+          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F112" t="n">
-        <v>1010.12</v>
+        <v>250.93</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0025</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H112" t="n">
-        <v>0.06759999999999999</v>
+        <v>0.0929</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SESA536</t>
+          <t>APSB32</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>INE205A08038</t>
+          <t>INE0M2307362</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>9.4% Vedanta Limited**</t>
+          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ICRA AA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="F113" t="n">
-        <v>1005.42</v>
+        <v>250.35</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0025</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H113" t="n">
-        <v>0.08855</v>
+        <v>0.091846</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TELA21</t>
+          <t>APSB33</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>INE1C3207081</t>
+          <t>INE0M2307321</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited**</t>
+          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4150,772 +4144,239 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="F114" t="n">
-        <v>609.39</v>
+        <v>250.24</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0015</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H114" t="n">
-        <v>0.089611</v>
+        <v>0.09395000000000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TELA20</t>
+          <t>JTMT20</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>INE1C3207057</t>
+          <t>INE02PE08036</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
+          <t>JTPM Metal Traders Limited**</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="F115" t="n">
-        <v>606.4400000000001</v>
+        <v>3610.61</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0015</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="H115" t="n">
-        <v>0.08914800000000001</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>AFPL128</t>
+          <t>NHIT24</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>INE949L08442</t>
+          <t>INE0H7R07058</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>9.3% AU Small Finance Bank Limited**</t>
+          <t>National Highways Infra Trust**</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>5</v>
+        <v>3750</v>
       </c>
       <c r="F116" t="n">
-        <v>506.75</v>
+        <v>1922.53</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0012</v>
+        <v>0.0047</v>
       </c>
       <c r="H116" t="n">
-        <v>0.08295</v>
+        <v>0.07636</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ICFP147</t>
+          <t>NHIT23</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>INE896L07983</t>
+          <t>INE0H7R07066</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>10.5% IndoStar Capital Finance Limited**</t>
+          <t>National Highways Infra Trust**</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>CARE AA-</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>50000</v>
+        <v>1250</v>
       </c>
       <c r="F117" t="n">
-        <v>506.04</v>
+        <v>688.47</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0012</v>
+        <v>0.0017</v>
       </c>
       <c r="H117" t="n">
-        <v>0.085049</v>
+        <v>0.076613</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SUMM22</t>
+          <t>SAEL21PS</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>INE507T07070</t>
+          <t>INE494B04019</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>7.4% Summit Digitel Infrastructure Limited**</t>
+          <t>TVS Motor Company Limited Preference Shares**</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CARE A1+</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>50</v>
+        <v>663240</v>
       </c>
       <c r="F118" t="n">
-        <v>504.56</v>
+        <v>67.56</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.07220699999999999</v>
-      </c>
+        <v>0.0002</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>APSB40</t>
-        </is>
-      </c>
+      <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
-          <t>INE0M2307412</t>
+          <t>INE171A08032</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>250</v>
-      </c>
-      <c r="F119" t="n">
-        <v>253</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.092526</v>
-      </c>
+          <t>8.2% Federal Bank Ltd BSIII Tier2 (20/01/32)CALL</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0.08252441300249999</v>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>APSB41</t>
+          <t>YESB658A</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>INE0M2307396</t>
+          <t>INE528G08352</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
+          <t>9.5% Yes Bank Limited **#</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>ICRA D</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>250</v>
+        <v>630</v>
       </c>
       <c r="F120" t="n">
-        <v>252.69</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.092877</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>$0.00%</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>APSB39</t>
+          <t>YESB671A</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>INE0M2307404</t>
+          <t>INE528G08394</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
+          <t>9% Yes Bank Limited **#</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>ICRA D</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>250</v>
+        <v>8153</v>
       </c>
       <c r="F121" t="n">
-        <v>252.48</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.092736</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>APSB36</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>INE0M2307339</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>250</v>
-      </c>
-      <c r="F122" t="n">
-        <v>252.46</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.09184100000000001</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>APSB38</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>INE0M2307347</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>9.15% Andhra Pradesh State Beverages Corporation Limited**</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>250</v>
-      </c>
-      <c r="F123" t="n">
-        <v>252.45</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0.092555</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>APSB35</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>INE0M2307354</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>250</v>
-      </c>
-      <c r="F124" t="n">
-        <v>251.52</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.092519</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>APSB37</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>INE0M2307388</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>250</v>
-      </c>
-      <c r="F125" t="n">
-        <v>251.49</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.093209</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>APSB34</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>INE0M2307370</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>250</v>
-      </c>
-      <c r="F126" t="n">
-        <v>250.93</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.0929</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>APSB32</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>INE0M2307362</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>250</v>
-      </c>
-      <c r="F127" t="n">
-        <v>250.35</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.091846</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>APSB33</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>INE0M2307321</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>9.15% Andhra Pradesh State Beverages Corporation Limited</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>FITCH AA(CE)</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>250</v>
-      </c>
-      <c r="F128" t="n">
-        <v>250.24</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.09395000000000001</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>JTMT20</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>INE02PE08036</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>JTPM Metal Traders Limited**</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>CRISIL AA</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>3500</v>
-      </c>
-      <c r="F129" t="n">
-        <v>3610.61</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.008800000000000001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.081</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>NHIT24</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>INE0H7R07058</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>National Highways Infra Trust**</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>3750</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1922.53</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0.07636</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>NHIT23</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>INE0H7R07066</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>National Highways Infra Trust**</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>1250</v>
-      </c>
-      <c r="F131" t="n">
-        <v>688.47</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0.076613</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>SAEL21PS</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>INE494B04019</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>TVS Motor Company Limited Preference Shares**</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>CARE A1+</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>663240</v>
-      </c>
-      <c r="F132" t="n">
-        <v>67.56</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr"/>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>isin_code</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>security_name</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Yield to Call</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr"/>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>INE171A08032</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>8.2% Federal Bank Ltd BSIII Tier2 (20/01/32)CALL</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>0.08252441300249999</v>
-      </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr"/>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>ISIN</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Name of the Instrument</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Industry / Rating</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Market/Fair Value
-( Rs. in Lacs)</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>% to NAV</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>YESB658A</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>INE528G08352</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>9.5% Yes Bank Limited **#</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>ICRA D</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>630</v>
-      </c>
-      <c r="F136" t="n">
         <v>0</v>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>$0.00%</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>YESB671A</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>INE528G08394</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>9% Yes Bank Limited **#</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>ICRA D</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>8153</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
